--- a/natmiOut/YoungD4/LR-pairs_lrc2p/F2-F2rl3.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/F2-F2rl3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>F2rl3</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.853079630476172</v>
+        <v>0.9173669999999999</v>
       </c>
       <c r="H2">
-        <v>0.853079630476172</v>
+        <v>2.752101</v>
       </c>
       <c r="I2">
-        <v>0.4614814602172247</v>
+        <v>0.3945831400754584</v>
       </c>
       <c r="J2">
-        <v>0.4614814602172247</v>
+        <v>0.3945831400754584</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.52779666999633</v>
+        <v>6.590697666666666</v>
       </c>
       <c r="N2">
-        <v>6.52779666999633</v>
+        <v>19.772093</v>
       </c>
       <c r="O2">
-        <v>0.8694287713813952</v>
+        <v>0.8431668433490623</v>
       </c>
       <c r="P2">
-        <v>0.8694287713813952</v>
+        <v>0.8431668433490624</v>
       </c>
       <c r="Q2">
-        <v>5.568730371064055</v>
+        <v>6.046088546376999</v>
       </c>
       <c r="R2">
-        <v>5.568730371064055</v>
+        <v>54.41479691739299</v>
       </c>
       <c r="S2">
-        <v>0.4012252589719539</v>
+        <v>0.3326994206561852</v>
       </c>
       <c r="T2">
-        <v>0.4012252589719539</v>
+        <v>0.3326994206561852</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.853079630476172</v>
+        <v>0.9173669999999999</v>
       </c>
       <c r="H3">
-        <v>0.853079630476172</v>
+        <v>2.752101</v>
       </c>
       <c r="I3">
-        <v>0.4614814602172247</v>
+        <v>0.3945831400754584</v>
       </c>
       <c r="J3">
-        <v>0.4614814602172247</v>
+        <v>0.3945831400754584</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.206268572130483</v>
+        <v>0.27175</v>
       </c>
       <c r="N3">
-        <v>0.206268572130483</v>
+        <v>0.81525</v>
       </c>
       <c r="O3">
-        <v>0.02747264357455872</v>
+        <v>0.03476575641437268</v>
       </c>
       <c r="P3">
-        <v>0.02747264357455872</v>
+        <v>0.03476575641437268</v>
       </c>
       <c r="Q3">
-        <v>0.1759635172919201</v>
+        <v>0.24929448225</v>
       </c>
       <c r="R3">
-        <v>0.1759635172919201</v>
+        <v>2.24365034025</v>
       </c>
       <c r="S3">
-        <v>0.01267811567281472</v>
+        <v>0.01371798133308168</v>
       </c>
       <c r="T3">
-        <v>0.01267811567281472</v>
+        <v>0.01371798133308168</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.853079630476172</v>
+        <v>0.9173669999999999</v>
       </c>
       <c r="H4">
-        <v>0.853079630476172</v>
+        <v>2.752101</v>
       </c>
       <c r="I4">
-        <v>0.4614814602172247</v>
+        <v>0.3945831400754584</v>
       </c>
       <c r="J4">
-        <v>0.4614814602172247</v>
+        <v>0.3945831400754584</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.226496819873752</v>
+        <v>0.3414906666666667</v>
       </c>
       <c r="N4">
-        <v>0.226496819873752</v>
+        <v>1.024472</v>
       </c>
       <c r="O4">
-        <v>0.03016681765376434</v>
+        <v>0.04368787979803153</v>
       </c>
       <c r="P4">
-        <v>0.03016681765376434</v>
+        <v>0.04368787979803154</v>
       </c>
       <c r="Q4">
-        <v>0.1932198234019284</v>
+        <v>0.313272268408</v>
       </c>
       <c r="R4">
-        <v>0.1932198234019284</v>
+        <v>2.819450415672</v>
       </c>
       <c r="S4">
-        <v>0.01392142706096592</v>
+        <v>0.01723850079394646</v>
       </c>
       <c r="T4">
-        <v>0.01392142706096592</v>
+        <v>0.01723850079394647</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.853079630476172</v>
+        <v>0.9173669999999999</v>
       </c>
       <c r="H5">
-        <v>0.853079630476172</v>
+        <v>2.752101</v>
       </c>
       <c r="I5">
-        <v>0.4614814602172247</v>
+        <v>0.3945831400754584</v>
       </c>
       <c r="J5">
-        <v>0.4614814602172247</v>
+        <v>0.3945831400754584</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.323268783709485</v>
+        <v>0.3577193333333333</v>
       </c>
       <c r="N5">
-        <v>0.323268783709485</v>
+        <v>1.073158</v>
       </c>
       <c r="O5">
-        <v>0.04305574999575676</v>
+        <v>0.04576405964076706</v>
       </c>
       <c r="P5">
-        <v>0.04305574999575676</v>
+        <v>0.04576405964076707</v>
       </c>
       <c r="Q5">
-        <v>0.275774014551369</v>
+        <v>0.3281599116619999</v>
       </c>
       <c r="R5">
-        <v>0.275774014551369</v>
+        <v>2.953439204957999</v>
       </c>
       <c r="S5">
-        <v>0.01986943037878959</v>
+        <v>0.01805772635565442</v>
       </c>
       <c r="T5">
-        <v>0.01986943037878959</v>
+        <v>0.01805772635565443</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.853079630476172</v>
+        <v>0.9173669999999999</v>
       </c>
       <c r="H6">
-        <v>0.853079630476172</v>
+        <v>2.752101</v>
       </c>
       <c r="I6">
-        <v>0.4614814602172247</v>
+        <v>0.3945831400754584</v>
       </c>
       <c r="J6">
-        <v>0.4614814602172247</v>
+        <v>0.3945831400754584</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.22431344956628</v>
+        <v>0.254942</v>
       </c>
       <c r="N6">
-        <v>0.22431344956628</v>
+        <v>0.764826</v>
       </c>
       <c r="O6">
-        <v>0.0298760173945251</v>
+        <v>0.03261546079776632</v>
       </c>
       <c r="P6">
-        <v>0.0298760173945251</v>
+        <v>0.03261546079776633</v>
       </c>
       <c r="Q6">
-        <v>0.1913572346668376</v>
+        <v>0.233875377714</v>
       </c>
       <c r="R6">
-        <v>0.1913572346668376</v>
+        <v>2.104878399426</v>
       </c>
       <c r="S6">
-        <v>0.01378722813270065</v>
+        <v>0.01286951093659065</v>
       </c>
       <c r="T6">
-        <v>0.01378722813270065</v>
+        <v>0.01286951093659065</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.729449170168489</v>
+        <v>0.824043</v>
       </c>
       <c r="H7">
-        <v>0.729449170168489</v>
+        <v>2.472129</v>
       </c>
       <c r="I7">
-        <v>0.3946023983900525</v>
+        <v>0.3544420875148125</v>
       </c>
       <c r="J7">
-        <v>0.3946023983900525</v>
+        <v>0.3544420875148125</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.52779666999633</v>
+        <v>6.590697666666666</v>
       </c>
       <c r="N7">
-        <v>6.52779666999633</v>
+        <v>19.772093</v>
       </c>
       <c r="O7">
-        <v>0.8694287713813952</v>
+        <v>0.8431668433490623</v>
       </c>
       <c r="P7">
-        <v>0.8694287713813952</v>
+        <v>0.8431668433490624</v>
       </c>
       <c r="Q7">
-        <v>4.761695863957448</v>
+        <v>5.431018277332999</v>
       </c>
       <c r="R7">
-        <v>4.761695863957448</v>
+        <v>48.87916449599699</v>
       </c>
       <c r="S7">
-        <v>0.3430786784164152</v>
+        <v>0.2988538160799166</v>
       </c>
       <c r="T7">
-        <v>0.3430786784164152</v>
+        <v>0.2988538160799166</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.729449170168489</v>
+        <v>0.824043</v>
       </c>
       <c r="H8">
-        <v>0.729449170168489</v>
+        <v>2.472129</v>
       </c>
       <c r="I8">
-        <v>0.3946023983900525</v>
+        <v>0.3544420875148125</v>
       </c>
       <c r="J8">
-        <v>0.3946023983900525</v>
+        <v>0.3544420875148125</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.206268572130483</v>
+        <v>0.27175</v>
       </c>
       <c r="N8">
-        <v>0.206268572130483</v>
+        <v>0.81525</v>
       </c>
       <c r="O8">
-        <v>0.02747264357455872</v>
+        <v>0.03476575641437268</v>
       </c>
       <c r="P8">
-        <v>0.02747264357455872</v>
+        <v>0.03476575641437268</v>
       </c>
       <c r="Q8">
-        <v>0.1504624387724199</v>
+        <v>0.22393368525</v>
       </c>
       <c r="R8">
-        <v>0.1504624387724199</v>
+        <v>2.01540316725</v>
       </c>
       <c r="S8">
-        <v>0.01084077104463594</v>
+        <v>0.01232244727754173</v>
       </c>
       <c r="T8">
-        <v>0.01084077104463594</v>
+        <v>0.01232244727754174</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.729449170168489</v>
+        <v>0.824043</v>
       </c>
       <c r="H9">
-        <v>0.729449170168489</v>
+        <v>2.472129</v>
       </c>
       <c r="I9">
-        <v>0.3946023983900525</v>
+        <v>0.3544420875148125</v>
       </c>
       <c r="J9">
-        <v>0.3946023983900525</v>
+        <v>0.3544420875148125</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.226496819873752</v>
+        <v>0.3414906666666667</v>
       </c>
       <c r="N9">
-        <v>0.226496819873752</v>
+        <v>1.024472</v>
       </c>
       <c r="O9">
-        <v>0.03016681765376434</v>
+        <v>0.04368787979803153</v>
       </c>
       <c r="P9">
-        <v>0.03016681765376434</v>
+        <v>0.04368787979803154</v>
       </c>
       <c r="Q9">
-        <v>0.1652179173027101</v>
+        <v>0.281402993432</v>
       </c>
       <c r="R9">
-        <v>0.1652179173027101</v>
+        <v>2.532626940888</v>
       </c>
       <c r="S9">
-        <v>0.01190389859797079</v>
+        <v>0.0154848233147105</v>
       </c>
       <c r="T9">
-        <v>0.01190389859797079</v>
+        <v>0.0154848233147105</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.729449170168489</v>
+        <v>0.824043</v>
       </c>
       <c r="H10">
-        <v>0.729449170168489</v>
+        <v>2.472129</v>
       </c>
       <c r="I10">
-        <v>0.3946023983900525</v>
+        <v>0.3544420875148125</v>
       </c>
       <c r="J10">
-        <v>0.3946023983900525</v>
+        <v>0.3544420875148125</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.323268783709485</v>
+        <v>0.3577193333333333</v>
       </c>
       <c r="N10">
-        <v>0.323268783709485</v>
+        <v>1.073158</v>
       </c>
       <c r="O10">
-        <v>0.04305574999575676</v>
+        <v>0.04576405964076706</v>
       </c>
       <c r="P10">
-        <v>0.04305574999575676</v>
+        <v>0.04576405964076707</v>
       </c>
       <c r="Q10">
-        <v>0.2358081460182606</v>
+        <v>0.294776112598</v>
       </c>
       <c r="R10">
-        <v>0.2358081460182606</v>
+        <v>2.652985013381999</v>
       </c>
       <c r="S10">
-        <v>0.01698990221280811</v>
+        <v>0.01622070883222586</v>
       </c>
       <c r="T10">
-        <v>0.01698990221280811</v>
+        <v>0.01622070883222586</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.729449170168489</v>
+        <v>0.824043</v>
       </c>
       <c r="H11">
-        <v>0.729449170168489</v>
+        <v>2.472129</v>
       </c>
       <c r="I11">
-        <v>0.3946023983900525</v>
+        <v>0.3544420875148125</v>
       </c>
       <c r="J11">
-        <v>0.3946023983900525</v>
+        <v>0.3544420875148125</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.22431344956628</v>
+        <v>0.254942</v>
       </c>
       <c r="N11">
-        <v>0.22431344956628</v>
+        <v>0.764826</v>
       </c>
       <c r="O11">
-        <v>0.0298760173945251</v>
+        <v>0.03261546079776632</v>
       </c>
       <c r="P11">
-        <v>0.0298760173945251</v>
+        <v>0.03261546079776633</v>
       </c>
       <c r="Q11">
-        <v>0.1636252596437542</v>
+        <v>0.210083170506</v>
       </c>
       <c r="R11">
-        <v>0.1636252596437542</v>
+        <v>1.890748534554</v>
       </c>
       <c r="S11">
-        <v>0.01178914811822253</v>
+        <v>0.01156029201041783</v>
       </c>
       <c r="T11">
-        <v>0.01178914811822253</v>
+        <v>0.01156029201041783</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.266038702098824</v>
+        <v>0.172111</v>
       </c>
       <c r="H12">
-        <v>0.266038702098824</v>
+        <v>0.5163329999999999</v>
       </c>
       <c r="I12">
-        <v>0.1439161413927229</v>
+        <v>0.07402936755031217</v>
       </c>
       <c r="J12">
-        <v>0.1439161413927229</v>
+        <v>0.07402936755031216</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.52779666999633</v>
+        <v>6.590697666666666</v>
       </c>
       <c r="N12">
-        <v>6.52779666999633</v>
+        <v>19.772093</v>
       </c>
       <c r="O12">
-        <v>0.8694287713813952</v>
+        <v>0.8431668433490623</v>
       </c>
       <c r="P12">
-        <v>0.8694287713813952</v>
+        <v>0.8431668433490624</v>
       </c>
       <c r="Q12">
-        <v>1.736646553650849</v>
+        <v>1.134331566107667</v>
       </c>
       <c r="R12">
-        <v>1.736646553650849</v>
+        <v>10.208984094969</v>
       </c>
       <c r="S12">
-        <v>0.1251248339930262</v>
+        <v>0.06241910815252422</v>
       </c>
       <c r="T12">
-        <v>0.1251248339930262</v>
+        <v>0.06241910815252422</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.266038702098824</v>
+        <v>0.172111</v>
       </c>
       <c r="H13">
-        <v>0.266038702098824</v>
+        <v>0.5163329999999999</v>
       </c>
       <c r="I13">
-        <v>0.1439161413927229</v>
+        <v>0.07402936755031217</v>
       </c>
       <c r="J13">
-        <v>0.1439161413927229</v>
+        <v>0.07402936755031216</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.206268572130483</v>
+        <v>0.27175</v>
       </c>
       <c r="N13">
-        <v>0.206268572130483</v>
+        <v>0.81525</v>
       </c>
       <c r="O13">
-        <v>0.02747264357455872</v>
+        <v>0.03476575641437268</v>
       </c>
       <c r="P13">
-        <v>0.02747264357455872</v>
+        <v>0.03476575641437268</v>
       </c>
       <c r="Q13">
-        <v>0.05487542321337136</v>
+        <v>0.04677116425</v>
       </c>
       <c r="R13">
-        <v>0.05487542321337136</v>
+        <v>0.42094047825</v>
       </c>
       <c r="S13">
-        <v>0.003953756857108073</v>
+        <v>0.002573686959764218</v>
       </c>
       <c r="T13">
-        <v>0.003953756857108073</v>
+        <v>0.002573686959764218</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.266038702098824</v>
+        <v>0.172111</v>
       </c>
       <c r="H14">
-        <v>0.266038702098824</v>
+        <v>0.5163329999999999</v>
       </c>
       <c r="I14">
-        <v>0.1439161413927229</v>
+        <v>0.07402936755031217</v>
       </c>
       <c r="J14">
-        <v>0.1439161413927229</v>
+        <v>0.07402936755031216</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.226496819873752</v>
+        <v>0.3414906666666667</v>
       </c>
       <c r="N14">
-        <v>0.226496819873752</v>
+        <v>1.024472</v>
       </c>
       <c r="O14">
-        <v>0.03016681765376434</v>
+        <v>0.04368787979803153</v>
       </c>
       <c r="P14">
-        <v>0.03016681765376434</v>
+        <v>0.04368787979803154</v>
       </c>
       <c r="Q14">
-        <v>0.06025691998872412</v>
+        <v>0.05877430013066666</v>
       </c>
       <c r="R14">
-        <v>0.06025691998872412</v>
+        <v>0.5289687011759999</v>
       </c>
       <c r="S14">
-        <v>0.004341491994827638</v>
+        <v>0.003234186111062334</v>
       </c>
       <c r="T14">
-        <v>0.004341491994827638</v>
+        <v>0.003234186111062334</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.266038702098824</v>
+        <v>0.172111</v>
       </c>
       <c r="H15">
-        <v>0.266038702098824</v>
+        <v>0.5163329999999999</v>
       </c>
       <c r="I15">
-        <v>0.1439161413927229</v>
+        <v>0.07402936755031217</v>
       </c>
       <c r="J15">
-        <v>0.1439161413927229</v>
+        <v>0.07402936755031216</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.323268783709485</v>
+        <v>0.3577193333333333</v>
       </c>
       <c r="N15">
-        <v>0.323268783709485</v>
+        <v>1.073158</v>
       </c>
       <c r="O15">
-        <v>0.04305574999575676</v>
+        <v>0.04576405964076706</v>
       </c>
       <c r="P15">
-        <v>0.04305574999575676</v>
+        <v>0.04576405964076707</v>
       </c>
       <c r="Q15">
-        <v>0.08600200764713685</v>
+        <v>0.06156743217933332</v>
       </c>
       <c r="R15">
-        <v>0.08600200764713685</v>
+        <v>0.5541068896139998</v>
       </c>
       <c r="S15">
-        <v>0.006196417404159057</v>
+        <v>0.003387884391740752</v>
       </c>
       <c r="T15">
-        <v>0.006196417404159057</v>
+        <v>0.003387884391740752</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.172111</v>
+      </c>
+      <c r="H16">
+        <v>0.5163329999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.07402936755031217</v>
+      </c>
+      <c r="J16">
+        <v>0.07402936755031216</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.254942</v>
+      </c>
+      <c r="N16">
+        <v>0.764826</v>
+      </c>
+      <c r="O16">
+        <v>0.03261546079776632</v>
+      </c>
+      <c r="P16">
+        <v>0.03261546079776633</v>
+      </c>
+      <c r="Q16">
+        <v>0.043878322562</v>
+      </c>
+      <c r="R16">
+        <v>0.394904903058</v>
+      </c>
+      <c r="S16">
+        <v>0.002414501935220641</v>
+      </c>
+      <c r="T16">
+        <v>0.002414501935220641</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.076847</v>
+      </c>
+      <c r="H17">
+        <v>0.230541</v>
+      </c>
+      <c r="I17">
+        <v>0.0330538710956234</v>
+      </c>
+      <c r="J17">
+        <v>0.0330538710956234</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>6.590697666666666</v>
+      </c>
+      <c r="N17">
+        <v>19.772093</v>
+      </c>
+      <c r="O17">
+        <v>0.8431668433490623</v>
+      </c>
+      <c r="P17">
+        <v>0.8431668433490624</v>
+      </c>
+      <c r="Q17">
+        <v>0.5064753435903333</v>
+      </c>
+      <c r="R17">
+        <v>4.558278092313</v>
+      </c>
+      <c r="S17">
+        <v>0.0278699281521636</v>
+      </c>
+      <c r="T17">
+        <v>0.0278699281521636</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.076847</v>
+      </c>
+      <c r="H18">
+        <v>0.230541</v>
+      </c>
+      <c r="I18">
+        <v>0.0330538710956234</v>
+      </c>
+      <c r="J18">
+        <v>0.0330538710956234</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.27175</v>
+      </c>
+      <c r="N18">
+        <v>0.81525</v>
+      </c>
+      <c r="O18">
+        <v>0.03476575641437268</v>
+      </c>
+      <c r="P18">
+        <v>0.03476575641437268</v>
+      </c>
+      <c r="Q18">
+        <v>0.02088317225</v>
+      </c>
+      <c r="R18">
+        <v>0.18794855025</v>
+      </c>
+      <c r="S18">
+        <v>0.001149142831062517</v>
+      </c>
+      <c r="T18">
+        <v>0.001149142831062517</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.076847</v>
+      </c>
+      <c r="H19">
+        <v>0.230541</v>
+      </c>
+      <c r="I19">
+        <v>0.0330538710956234</v>
+      </c>
+      <c r="J19">
+        <v>0.0330538710956234</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.3414906666666667</v>
+      </c>
+      <c r="N19">
+        <v>1.024472</v>
+      </c>
+      <c r="O19">
+        <v>0.04368787979803153</v>
+      </c>
+      <c r="P19">
+        <v>0.04368787979803154</v>
+      </c>
+      <c r="Q19">
+        <v>0.02624253326133333</v>
+      </c>
+      <c r="R19">
+        <v>0.236182799352</v>
+      </c>
+      <c r="S19">
+        <v>0.001444053547285224</v>
+      </c>
+      <c r="T19">
+        <v>0.001444053547285224</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.076847</v>
+      </c>
+      <c r="H20">
+        <v>0.230541</v>
+      </c>
+      <c r="I20">
+        <v>0.0330538710956234</v>
+      </c>
+      <c r="J20">
+        <v>0.0330538710956234</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.3577193333333333</v>
+      </c>
+      <c r="N20">
+        <v>1.073158</v>
+      </c>
+      <c r="O20">
+        <v>0.04576405964076706</v>
+      </c>
+      <c r="P20">
+        <v>0.04576405964076707</v>
+      </c>
+      <c r="Q20">
+        <v>0.02748965760866666</v>
+      </c>
+      <c r="R20">
+        <v>0.2474069184779999</v>
+      </c>
+      <c r="S20">
+        <v>0.001512679328178336</v>
+      </c>
+      <c r="T20">
+        <v>0.001512679328178336</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.076847</v>
+      </c>
+      <c r="H21">
+        <v>0.230541</v>
+      </c>
+      <c r="I21">
+        <v>0.0330538710956234</v>
+      </c>
+      <c r="J21">
+        <v>0.0330538710956234</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.254942</v>
+      </c>
+      <c r="N21">
+        <v>0.764826</v>
+      </c>
+      <c r="O21">
+        <v>0.03261546079776632</v>
+      </c>
+      <c r="P21">
+        <v>0.03261546079776633</v>
+      </c>
+      <c r="Q21">
+        <v>0.019591527874</v>
+      </c>
+      <c r="R21">
+        <v>0.176323750866</v>
+      </c>
+      <c r="S21">
+        <v>0.001078067236933727</v>
+      </c>
+      <c r="T21">
+        <v>0.001078067236933727</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.3345336666666667</v>
+      </c>
+      <c r="H22">
+        <v>1.003601</v>
+      </c>
+      <c r="I22">
+        <v>0.1438915337637936</v>
+      </c>
+      <c r="J22">
+        <v>0.1438915337637936</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>6.590697666666666</v>
+      </c>
+      <c r="N22">
+        <v>19.772093</v>
+      </c>
+      <c r="O22">
+        <v>0.8431668433490623</v>
+      </c>
+      <c r="P22">
+        <v>0.8431668433490624</v>
+      </c>
+      <c r="Q22">
+        <v>2.204810256321444</v>
+      </c>
+      <c r="R22">
+        <v>19.843292306893</v>
+      </c>
+      <c r="S22">
+        <v>0.1213245703082729</v>
+      </c>
+      <c r="T22">
+        <v>0.1213245703082729</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.3345336666666667</v>
+      </c>
+      <c r="H23">
+        <v>1.003601</v>
+      </c>
+      <c r="I23">
+        <v>0.1438915337637936</v>
+      </c>
+      <c r="J23">
+        <v>0.1438915337637936</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.27175</v>
+      </c>
+      <c r="N23">
+        <v>0.81525</v>
+      </c>
+      <c r="O23">
+        <v>0.03476575641437268</v>
+      </c>
+      <c r="P23">
+        <v>0.03476575641437268</v>
+      </c>
+      <c r="Q23">
+        <v>0.09090952391666667</v>
+      </c>
+      <c r="R23">
+        <v>0.8181857152500001</v>
+      </c>
+      <c r="S23">
+        <v>0.00500249801292253</v>
+      </c>
+      <c r="T23">
+        <v>0.005002498012922531</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.266038702098824</v>
-      </c>
-      <c r="H16">
-        <v>0.266038702098824</v>
-      </c>
-      <c r="I16">
-        <v>0.1439161413927229</v>
-      </c>
-      <c r="J16">
-        <v>0.1439161413927229</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.22431344956628</v>
-      </c>
-      <c r="N16">
-        <v>0.22431344956628</v>
-      </c>
-      <c r="O16">
-        <v>0.0298760173945251</v>
-      </c>
-      <c r="P16">
-        <v>0.0298760173945251</v>
-      </c>
-      <c r="Q16">
-        <v>0.05967605898592315</v>
-      </c>
-      <c r="R16">
-        <v>0.05967605898592315</v>
-      </c>
-      <c r="S16">
-        <v>0.004299641143601922</v>
-      </c>
-      <c r="T16">
-        <v>0.004299641143601922</v>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.3345336666666667</v>
+      </c>
+      <c r="H24">
+        <v>1.003601</v>
+      </c>
+      <c r="I24">
+        <v>0.1438915337637936</v>
+      </c>
+      <c r="J24">
+        <v>0.1438915337637936</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.3414906666666667</v>
+      </c>
+      <c r="N24">
+        <v>1.024472</v>
+      </c>
+      <c r="O24">
+        <v>0.04368787979803153</v>
+      </c>
+      <c r="P24">
+        <v>0.04368787979803154</v>
+      </c>
+      <c r="Q24">
+        <v>0.1142401248524444</v>
+      </c>
+      <c r="R24">
+        <v>1.028161123672</v>
+      </c>
+      <c r="S24">
+        <v>0.00628631603102701</v>
+      </c>
+      <c r="T24">
+        <v>0.006286316031027012</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.3345336666666667</v>
+      </c>
+      <c r="H25">
+        <v>1.003601</v>
+      </c>
+      <c r="I25">
+        <v>0.1438915337637936</v>
+      </c>
+      <c r="J25">
+        <v>0.1438915337637936</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.3577193333333333</v>
+      </c>
+      <c r="N25">
+        <v>1.073158</v>
+      </c>
+      <c r="O25">
+        <v>0.04576405964076706</v>
+      </c>
+      <c r="P25">
+        <v>0.04576405964076707</v>
+      </c>
+      <c r="Q25">
+        <v>0.1196691602175555</v>
+      </c>
+      <c r="R25">
+        <v>1.077022441958</v>
+      </c>
+      <c r="S25">
+        <v>0.006585060732967697</v>
+      </c>
+      <c r="T25">
+        <v>0.0065850607329677</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.3345336666666667</v>
+      </c>
+      <c r="H26">
+        <v>1.003601</v>
+      </c>
+      <c r="I26">
+        <v>0.1438915337637936</v>
+      </c>
+      <c r="J26">
+        <v>0.1438915337637936</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.254942</v>
+      </c>
+      <c r="N26">
+        <v>0.764826</v>
+      </c>
+      <c r="O26">
+        <v>0.03261546079776632</v>
+      </c>
+      <c r="P26">
+        <v>0.03261546079776633</v>
+      </c>
+      <c r="Q26">
+        <v>0.08528668204733333</v>
+      </c>
+      <c r="R26">
+        <v>0.7675801384259999</v>
+      </c>
+      <c r="S26">
+        <v>0.00469308867860348</v>
+      </c>
+      <c r="T26">
+        <v>0.00469308867860348</v>
       </c>
     </row>
   </sheetData>
